--- a/dataset/Algolia Ecommerce Done.xlsx
+++ b/dataset/Algolia Ecommerce Done.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isak1\OneDrive\Desktop\Bachelor projekt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB56E48-DCEE-41C7-9486-4E18F4C55050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,274 +38,274 @@
     <t>How does transforming the online shopping experience impact customer behavior?</t>
   </si>
   <si>
+    <t>Making customers feel understood increases conversion rates and encourages repeat visits.</t>
+  </si>
+  <si>
     <t>What is the benefit of personalizing the search experience in e-commerce?</t>
   </si>
   <si>
+    <t>Personalized, AI-powered search understands customer intent, enhancing satisfaction and conversion.</t>
+  </si>
+  <si>
     <t>How does Algolia contribute to real-time customer transparency in stock availability?</t>
   </si>
   <si>
+    <t>Algolia's partnership with retailers like Walgreens allows for real-time transparency of in-stock items, driving local purchases.</t>
+  </si>
+  <si>
     <t>What are the advantages of using AI in e-commerce search?</t>
   </si>
   <si>
+    <t>AI search quickly shows relevant results, understands buyer intent, and automates category reporting and ranking.</t>
+  </si>
+  <si>
     <t>How can e-commerce platforms increase cart sizes?</t>
   </si>
   <si>
+    <t>By using AI Recommendations for search and browse experiences, predicting related products, and adding personalized recommendations.</t>
+  </si>
+  <si>
     <t>What role does AI Personalization play in e-commerce sales?</t>
   </si>
   <si>
+    <t>It tailors product suggestions and promotions to match shopper interests, personalizing the shopping journey across touchpoints.</t>
+  </si>
+  <si>
     <t>How does Algolia support e-commerce merchandising?</t>
   </si>
   <si>
+    <t>Algolia's Merchandising Studio combines automation, rules, and analytics for better merchandising decisions without code.</t>
+  </si>
+  <si>
     <t>What are the key features of Algolia's search solution?</t>
   </si>
   <si>
+    <t>Algolia offers fast, easy-to-implement, scalable AI search with control over ranking and 99.999% availability.</t>
+  </si>
+  <si>
     <t>Why do manufacturers and distributors choose Algolia for B2B e-commerce?</t>
   </si>
   <si>
+    <t>Over 1700 manufacturers and distributors choose Algolia for its comprehensive tools and AI-powered search capabilities that understand buyer intent, offering best-in-class B2B e-commerce experiences.</t>
+  </si>
+  <si>
     <t>How does Algolia's AI Search enhance B2B e-commerce?</t>
   </si>
   <si>
+    <t>Algolia's AI Search quickly delivers exactly what customers need, understanding buyer intent, enabling searches by various product attributes, and combining results from all data sources into a single search experience.</t>
+  </si>
+  <si>
     <t>What benefits do AI Recommendations offer in B2B commerce?</t>
   </si>
   <si>
+    <t>AI Recommendations boost average order value with tailored suggestions, drive cross-sell with predictive models, and add personalized recommendations across the site, improving discovery and sales.</t>
+  </si>
+  <si>
     <t>How does AI Browse improve the B2B shopping experience?</t>
   </si>
   <si>
+    <t>AI Browse automatically builds and optimizes category and collection pages based on buyer behavior, delivers results instantly, and boosts items that are trending, enhancing the customer experience.</t>
+  </si>
+  <si>
     <t>What is the purpose of the Merchandising Studio in Algolia?</t>
   </si>
   <si>
+    <t>Algolia's Merchandising Studio provides transparency and control over ranking and relevance, enabling business teams to fine-tune results, boost or bury items, and optimize for high-revenue search terms and seasonal trends.</t>
+  </si>
+  <si>
     <t>How does personalization work in Algolia's B2B commerce solution?</t>
   </si>
   <si>
+    <t>Algolia personalizes the B2B customer experience by showing products tailored to each customer's access, behavior, and preferences, managing customer-specific pricing, and displaying inventory based on warehouse.</t>
+  </si>
+  <si>
     <t>What are the key features of Algolia's search solution for B2B?</t>
   </si>
   <si>
+    <t>Algolia offers an easy-to-use, fast, and scalable search solution with easy control over rankings, handling billions of records and searches a year, with top-tier security and compliance.</t>
+  </si>
+  <si>
     <t>How does Algolia support global business expansion in B2B commerce?</t>
   </si>
   <si>
+    <t>Algolia facilitates global expansion with its worldwide infrastructure and API-centric approach, ensuring consistent service quality, security, and compliance, with dedicated options across six continents.</t>
+  </si>
+  <si>
     <t>How does Algolia support fast and scalable search for marketplaces?</t>
   </si>
   <si>
+    <t>Algolia offers a search API that understands customers, facilitating easy scaling for marketplaces with near real-time indexing and serving 1.7 trillion searches a year.</t>
+  </si>
+  <si>
     <t>What was the project experience like for ManoMano with Algolia?</t>
   </si>
   <si>
+    <t>ManoMano enjoyed a project that started and landed on time with Algolia, appreciating the technology and results.</t>
+  </si>
+  <si>
     <t>What makes Algolia's search-as-a-service beneficial for tech teams?</t>
   </si>
   <si>
+    <t>Algolia's fully hosted and managed search service allows tech teams to launch test cases and build integrations quickly, focusing on value-added tasks without worrying about search infrastructure maintenance.</t>
+  </si>
+  <si>
     <t>How does Algolia enable rapid iteration for marketplaces?</t>
   </si>
   <si>
+    <t>Algolia facilitates rapid iteration with continuous engine optimization, built-in query suggestions, dynamic faceting, and support for voice search and personalization, all designed with developers in mind.</t>
+  </si>
+  <si>
     <t>What customization capabilities does Algolia offer for marketplace search?</t>
   </si>
   <si>
+    <t>Algolia provides broad customization, including a fully customizable ranking algorithm, configuration for text relevance to match user-generated content, and leveraging first-party data for improved search results.</t>
+  </si>
+  <si>
     <t>How does Algolia's Merchandising Studio benefit marketplaces?</t>
   </si>
   <si>
+    <t>Algolia's Merchandising Studio combines the art of merchandising with the science of algorithms, offering automations, rules, analytics in one place, with AI and human controls, all without requiring any code.</t>
+  </si>
+  <si>
     <t>How does Algolia enhance user satisfaction in SaaS applications?</t>
   </si>
   <si>
+    <t>Algolia boosts user satisfaction with relevant, real-time AI search results, converting users effectively and being trusted by over 17,000 customers across 150+ countries.</t>
+  </si>
+  <si>
     <t>What are the key benefits of Algolia's AI Search for SaaS?</t>
   </si>
   <si>
+    <t>Algolia's AI Search delivers precise results, understanding buyer intent, automating category reporting and ranking, and dynamically re-ranking best-sellers, making all content searchable.</t>
+  </si>
+  <si>
     <t>How does Algolia support cross-selling and increasing average order value in SaaS?</t>
   </si>
   <si>
+    <t>Algolia boosts average order value and supports cross-selling with AI Recommendations based on behavioral and contextual data, including personalized recommendations and image-based suggestions.</t>
+  </si>
+  <si>
     <t>What analytics capabilities does Algolia offer for SaaS platforms?</t>
   </si>
   <si>
+    <t>Algolia provides analytics for complete transparency and control over search ranking and relevance, enabling business teams to optimize results based on business goals and real-time insights.</t>
+  </si>
+  <si>
     <t>What makes Algolia a reliable choice for SaaS companies?</t>
   </si>
   <si>
+    <t>Algolia is valued for its reliability, speed, and ease of integration, handling billions of records and nearly 1.7 trillion searches a year with high availability, making it a preferred partner for SaaS.</t>
+  </si>
+  <si>
     <t>What sets Algolia's search and discovery platform apart?</t>
   </si>
   <si>
+    <t>Algolia's platform is unique for its end-to-end, AI-powered search and discovery capabilities, offering the industry's best relevance by combining natural language processing with keyword search on a single API product.</t>
+  </si>
+  <si>
     <t>How many employees does Algolia have?</t>
   </si>
   <si>
+    <t>Algolia has over 750 employees.</t>
+  </si>
+  <si>
     <t>What is the reach of Algolia's platform?</t>
   </si>
   <si>
+    <t>Algolia is used by one in six online users monthly, and more than 5 million developers use Algolia's platform per month.</t>
+  </si>
+  <si>
     <t>How many customers does Algolia serve, and what is the volume of search requests they generate?</t>
   </si>
   <si>
+    <t>Algolia serves over 17,000 customers, generating 1.75 trillion search requests a year on a platform with five nines (99.999%) availability.</t>
+  </si>
+  <si>
     <t>What are the capabilities of Algolia in terms of queries per second and availability?</t>
   </si>
   <si>
+    <t>Algolia services more than 100,000 queries per second with 99.999% availability, equating to just 78 seconds of downtime a quarter.</t>
+  </si>
+  <si>
     <t>How does Algolia address security, privacy, and compliance in its AI and retrieval methods?</t>
   </si>
   <si>
+    <t>Algolia's combination of generative AI and retrieval methods is designed to address security, privacy, and compliance concerns for enterprises using generative AI on their proprietary data.</t>
+  </si>
+  <si>
     <t>What is the core focus of Algolia's platform?</t>
   </si>
   <si>
+    <t>Ease of use is central to Algolia's platform, allowing customers to focus on high-velocity retrieval of what their customers want.</t>
+  </si>
+  <si>
     <t>What does Algolia's workplace culture emphasize?</t>
   </si>
   <si>
+    <t>Algolia fosters a culture of belonging and innovation, striving for an inclusive workforce and progress towards a better world.</t>
+  </si>
+  <si>
     <t>What is Algolia's score on the French Gender Equality Index?</t>
   </si>
   <si>
+    <t>Algolia scored 94 out of 100 on the French Gender Equality Index for the year 2023.</t>
+  </si>
+  <si>
     <t>How does Algolia's working policy reflect its global and inclusive approach?</t>
   </si>
   <si>
+    <t>Algolia has a hybrid remote working policy with team members in cities worldwide, reflecting its commitment to diversity and inclusion.</t>
+  </si>
+  <si>
     <t>What is the unique feature of Algolia's AI search?</t>
   </si>
   <si>
+    <t>Algolia's AI search combines semantic search with keyword search, delivering precise results quickly and surfacing under-exposed content.</t>
+  </si>
+  <si>
     <t>How does Algolia's Query Categorization improve search relevance?</t>
   </si>
   <si>
+    <t>Query Categorization predicts and shows results from the most likely category based on the query, improving relevance and customer outcomes.</t>
+  </si>
+  <si>
     <t>What is the benefit of Algolia's Dynamic Re-ranking feature?</t>
   </si>
   <si>
+    <t>Dynamic Re-ranking uses AI to identify and boost popular content, adapting to trends and ensuring top content remains visible.</t>
+  </si>
+  <si>
     <t>How does personalization enhance Algolia's search experience?</t>
   </si>
   <si>
+    <t>Algolia personalizes search results, product listings, and recommendations for each user, leading to higher engagement.</t>
+  </si>
+  <si>
     <t>What role do AI Synonyms play in Algolia's platform?</t>
   </si>
   <si>
+    <t>AI Synonyms analyze user inputs to detect new potential synonyms, helping to match more queries and improve search accuracy.</t>
+  </si>
+  <si>
     <t>How can businesses influence Algolia's search results?</t>
   </si>
   <si>
+    <t>Businesses can define commercial attributes to promote in search results and use merchandising tools for curation and ranking influence.</t>
+  </si>
+  <si>
     <t>What makes Algolia's Crawler valuable for websites?</t>
   </si>
   <si>
+    <t>Algolia's Crawler makes web content easily searchable by cataloging and storing site pages, enhancing site search experience without needing meta tags.</t>
+  </si>
+  <si>
     <t>How does Algolia's Crawler customize the crawling process?</t>
   </si>
   <si>
+    <t>The crawler allows for customization and automation of crawling sessions, including scheduling, manual setup, and specific site or page targeting.</t>
+  </si>
+  <si>
     <t>What insights does Algolia offer through its crawler's monitoring and analysis?</t>
-  </si>
-  <si>
-    <t>Making customers feel understood increases conversion rates and encourages repeat visits.</t>
-  </si>
-  <si>
-    <t>Personalized, AI-powered search understands customer intent, enhancing satisfaction and conversion.</t>
-  </si>
-  <si>
-    <t>Algolia's partnership with retailers like Walgreens allows for real-time transparency of in-stock items, driving local purchases.</t>
-  </si>
-  <si>
-    <t>AI search quickly shows relevant results, understands buyer intent, and automates category reporting and ranking.</t>
-  </si>
-  <si>
-    <t>By using AI Recommendations for search and browse experiences, predicting related products, and adding personalized recommendations.</t>
-  </si>
-  <si>
-    <t>It tailors product suggestions and promotions to match shopper interests, personalizing the shopping journey across touchpoints.</t>
-  </si>
-  <si>
-    <t>Algolia's Merchandising Studio combines automation, rules, and analytics for better merchandising decisions without code.</t>
-  </si>
-  <si>
-    <t>Algolia offers fast, easy-to-implement, scalable AI search with control over ranking and 99.999% availability.</t>
-  </si>
-  <si>
-    <t>Over 1700 manufacturers and distributors choose Algolia for its comprehensive tools and AI-powered search capabilities that understand buyer intent, offering best-in-class B2B e-commerce experiences.</t>
-  </si>
-  <si>
-    <t>Algolia's AI Search quickly delivers exactly what customers need, understanding buyer intent, enabling searches by various product attributes, and combining results from all data sources into a single search experience.</t>
-  </si>
-  <si>
-    <t>AI Recommendations boost average order value with tailored suggestions, drive cross-sell with predictive models, and add personalized recommendations across the site, improving discovery and sales.</t>
-  </si>
-  <si>
-    <t>AI Browse automatically builds and optimizes category and collection pages based on buyer behavior, delivers results instantly, and boosts items that are trending, enhancing the customer experience.</t>
-  </si>
-  <si>
-    <t>Algolia's Merchandising Studio provides transparency and control over ranking and relevance, enabling business teams to fine-tune results, boost or bury items, and optimize for high-revenue search terms and seasonal trends.</t>
-  </si>
-  <si>
-    <t>Algolia personalizes the B2B customer experience by showing products tailored to each customer's access, behavior, and preferences, managing customer-specific pricing, and displaying inventory based on warehouse.</t>
-  </si>
-  <si>
-    <t>Algolia offers an easy-to-use, fast, and scalable search solution with easy control over rankings, handling billions of records and searches a year, with top-tier security and compliance.</t>
-  </si>
-  <si>
-    <t>Algolia facilitates global expansion with its worldwide infrastructure and API-centric approach, ensuring consistent service quality, security, and compliance, with dedicated options across six continents.</t>
-  </si>
-  <si>
-    <t>Algolia offers a search API that understands customers, facilitating easy scaling for marketplaces with near real-time indexing and serving 1.7 trillion searches a year.</t>
-  </si>
-  <si>
-    <t>ManoMano enjoyed a project that started and landed on time with Algolia, appreciating the technology and results.</t>
-  </si>
-  <si>
-    <t>Algolia's fully hosted and managed search service allows tech teams to launch test cases and build integrations quickly, focusing on value-added tasks without worrying about search infrastructure maintenance.</t>
-  </si>
-  <si>
-    <t>Algolia facilitates rapid iteration with continuous engine optimization, built-in query suggestions, dynamic faceting, and support for voice search and personalization, all designed with developers in mind.</t>
-  </si>
-  <si>
-    <t>Algolia provides broad customization, including a fully customizable ranking algorithm, configuration for text relevance to match user-generated content, and leveraging first-party data for improved search results.</t>
-  </si>
-  <si>
-    <t>Algolia's Merchandising Studio combines the art of merchandising with the science of algorithms, offering automations, rules, analytics in one place, with AI and human controls, all without requiring any code.</t>
-  </si>
-  <si>
-    <t>Algolia boosts user satisfaction with relevant, real-time AI search results, converting users effectively and being trusted by over 17,000 customers across 150+ countries.</t>
-  </si>
-  <si>
-    <t>Algolia's AI Search delivers precise results, understanding buyer intent, automating category reporting and ranking, and dynamically re-ranking best-sellers, making all content searchable.</t>
-  </si>
-  <si>
-    <t>Algolia boosts average order value and supports cross-selling with AI Recommendations based on behavioral and contextual data, including personalized recommendations and image-based suggestions.</t>
-  </si>
-  <si>
-    <t>Algolia provides analytics for complete transparency and control over search ranking and relevance, enabling business teams to optimize results based on business goals and real-time insights.</t>
-  </si>
-  <si>
-    <t>Algolia is valued for its reliability, speed, and ease of integration, handling billions of records and nearly 1.7 trillion searches a year with high availability, making it a preferred partner for SaaS.</t>
-  </si>
-  <si>
-    <t>Algolia's platform is unique for its end-to-end, AI-powered search and discovery capabilities, offering the industry's best relevance by combining natural language processing with keyword search on a single API product.</t>
-  </si>
-  <si>
-    <t>Algolia has over 750 employees.</t>
-  </si>
-  <si>
-    <t>Algolia is used by one in six online users monthly, and more than 5 million developers use Algolia's platform per month.</t>
-  </si>
-  <si>
-    <t>Algolia serves over 17,000 customers, generating 1.75 trillion search requests a year on a platform with five nines (99.999%) availability.</t>
-  </si>
-  <si>
-    <t>Algolia services more than 100,000 queries per second with 99.999% availability, equating to just 78 seconds of downtime a quarter.</t>
-  </si>
-  <si>
-    <t>Algolia's combination of generative AI and retrieval methods is designed to address security, privacy, and compliance concerns for enterprises using generative AI on their proprietary data.</t>
-  </si>
-  <si>
-    <t>Ease of use is central to Algolia's platform, allowing customers to focus on high-velocity retrieval of what their customers want.</t>
-  </si>
-  <si>
-    <t>Algolia fosters a culture of belonging and innovation, striving for an inclusive workforce and progress towards a better world.</t>
-  </si>
-  <si>
-    <t>Algolia scored 94 out of 100 on the French Gender Equality Index for the year 2023.</t>
-  </si>
-  <si>
-    <t>Algolia has a hybrid remote working policy with team members in cities worldwide, reflecting its commitment to diversity and inclusion.</t>
-  </si>
-  <si>
-    <t>Algolia's AI search combines semantic search with keyword search, delivering precise results quickly and surfacing under-exposed content.</t>
-  </si>
-  <si>
-    <t>Query Categorization predicts and shows results from the most likely category based on the query, improving relevance and customer outcomes.</t>
-  </si>
-  <si>
-    <t>Dynamic Re-ranking uses AI to identify and boost popular content, adapting to trends and ensuring top content remains visible.</t>
-  </si>
-  <si>
-    <t>Algolia personalizes search results, product listings, and recommendations for each user, leading to higher engagement.</t>
-  </si>
-  <si>
-    <t>AI Synonyms analyze user inputs to detect new potential synonyms, helping to match more queries and improve search accuracy.</t>
-  </si>
-  <si>
-    <t>Businesses can define commercial attributes to promote in search results and use merchandising tools for curation and ranking influence.</t>
-  </si>
-  <si>
-    <t>Algolia's Crawler makes web content easily searchable by cataloging and storing site pages, enhancing site search experience without needing meta tags.</t>
-  </si>
-  <si>
-    <t>The crawler allows for customization and automation of crawling sessions, including scheduling, manual setup, and specific site or page targeting.</t>
   </si>
   <si>
     <t>Algolia provides real-time crawl data, URL inspection, monitoring, data analysis, and path exploration to assess index quality and crawling effectiveness.</t>
@@ -307,13 +314,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,19 +334,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -356,9 +706,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -366,17 +958,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -663,21 +1299,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="98.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,369 +1324,369 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -1055,5 +1694,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>